--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10DE7CD-E395-4173-A840-933EFA9053C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027AB300-DBEE-449B-89C7-19494684B270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -141,25 +141,46 @@
     <t>ColName_CompanyName</t>
   </si>
   <si>
-    <t>ColName_Staus</t>
-  </si>
-  <si>
     <t>ColLetter_CompanyName</t>
   </si>
   <si>
+    <t>WorkLog_FileName</t>
+  </si>
+  <si>
+    <t>XeroBankRecon_Worklog.xlsx</t>
+  </si>
+  <si>
+    <t>SheetName_Companies</t>
+  </si>
+  <si>
+    <t>ArchiveFolderPath</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ColName_Status</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>SheetName_Com_WorkLog</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NAME</t>
+  </si>
+  <si>
+    <t>ColName_AccountName</t>
+  </si>
+  <si>
+    <t>ColLetter_Acct_Status</t>
+  </si>
+  <si>
     <t>ColLetter_Status</t>
   </si>
   <si>
-    <t>WorkLog_FileName</t>
-  </si>
-  <si>
-    <t>XeroBankRecon_Worklog.xlsx</t>
-  </si>
-  <si>
-    <t>SheetName_Companies</t>
-  </si>
-  <si>
-    <t>ArchiveFolderPath</t>
+    <t>ColLetter_Acct_Name</t>
   </si>
 </sst>
 </file>
@@ -545,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z954"/>
+  <dimension ref="A1:Z958"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -676,119 +697,149 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>36</v>
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1711,6 +1762,10 @@
     <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2800,7 +2855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z958"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2919,7 +2974,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>30</v>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027AB300-DBEE-449B-89C7-19494684B270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA0869-C76F-47D2-AAA0-F6187DB0A077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -69,12 +69,6 @@
     <t>The MS Outlook account used by the Bot to send mail messages.</t>
   </si>
   <si>
-    <t>External_Config</t>
-  </si>
-  <si>
-    <t>XERO Work Data</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>LoginUrl</t>
   </si>
   <si>
-    <t>Work _Log</t>
-  </si>
-  <si>
     <t>XERO Credentials</t>
   </si>
   <si>
@@ -132,18 +123,9 @@
     <t>Companies_to_Treat</t>
   </si>
   <si>
-    <t>SheetName_WorkLog</t>
-  </si>
-  <si>
     <t>COMPANY_NAME</t>
   </si>
   <si>
-    <t>ColName_CompanyName</t>
-  </si>
-  <si>
-    <t>ColLetter_CompanyName</t>
-  </si>
-  <si>
     <t>WorkLog_FileName</t>
   </si>
   <si>
@@ -159,28 +141,73 @@
     <t>C</t>
   </si>
   <si>
-    <t>ColName_Status</t>
-  </si>
-  <si>
     <t>Companies</t>
   </si>
   <si>
-    <t>SheetName_Com_WorkLog</t>
-  </si>
-  <si>
     <t>ACCOUNT_NAME</t>
   </si>
   <si>
-    <t>ColName_AccountName</t>
-  </si>
-  <si>
-    <t>ColLetter_Acct_Status</t>
-  </si>
-  <si>
-    <t>ColLetter_Status</t>
-  </si>
-  <si>
-    <t>ColLetter_Acct_Name</t>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>SheetName_WorkLogCompanies</t>
+  </si>
+  <si>
+    <t>SheetName_WorkLogAccounts</t>
+  </si>
+  <si>
+    <t>ColNameCompanies_CompanyName</t>
+  </si>
+  <si>
+    <t>ColNameCompanies_Status</t>
+  </si>
+  <si>
+    <t>ColLetterCompanies_CompanyName</t>
+  </si>
+  <si>
+    <t>ColLetterCompanies_Status</t>
+  </si>
+  <si>
+    <t>ColNameAccounts_CompanyName</t>
+  </si>
+  <si>
+    <t>ColNameAccounts_AccountName</t>
+  </si>
+  <si>
+    <t>ColNameAccounts_Status</t>
+  </si>
+  <si>
+    <t>ColLetterAccounts_CompanyName</t>
+  </si>
+  <si>
+    <t>ColLetterAccounts_Status</t>
+  </si>
+  <si>
+    <t>ColLetterAccounts_AccountName</t>
+  </si>
+  <si>
+    <t>Exclusion_List</t>
+  </si>
+  <si>
+    <t>ColNameExclusion_CompanyName</t>
+  </si>
+  <si>
+    <t>ColNameExclusion_AccountName</t>
+  </si>
+  <si>
+    <t>ColLetterExclusion_CompanyName</t>
+  </si>
+  <si>
+    <t>ColLetterExclusion_AccountName</t>
+  </si>
+  <si>
+    <t>SheetName_ExclusionList</t>
+  </si>
+  <si>
+    <t>WORK LOG FILE</t>
+  </si>
+  <si>
+    <t>EXTERNAL CONFIG FILE</t>
   </si>
 </sst>
 </file>
@@ -566,17 +593,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z958"/>
+  <dimension ref="A1:Z956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
     <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -617,16 +644,16 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -684,162 +711,185 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1764,8 +1814,6 @@
     <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2958,42 +3006,42 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanayo.Eruchalu\Documents\UiPath\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA0869-C76F-47D2-AAA0-F6187DB0A077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C6D0A-0E2C-4396-A8DE-C0551D68854D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>EXTERNAL CONFIG FILE</t>
+  </si>
+  <si>
+    <t>XeroDashboardUrl</t>
+  </si>
+  <si>
+    <t>https://go.xero.com/Dashboard/default.aspx</t>
   </si>
 </sst>
 </file>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z956"/>
+  <dimension ref="A1:Z957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -681,8 +687,12 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -708,188 +718,215 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1814,6 +1851,7 @@
     <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanayo.Eruchalu\Documents\UiPath\Xero_Bank_Recon_Deluxe\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C6D0A-0E2C-4396-A8DE-C0551D68854D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DC153-FEB1-47F9-8E3B-6E3DC0B99FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -114,9 +114,6 @@
     <t>XeroBR_ExceptionFolderPath</t>
   </si>
   <si>
-    <t>Xero_LoginCredentials</t>
-  </si>
-  <si>
     <t>SheetName_SystemData</t>
   </si>
   <si>
@@ -210,10 +207,10 @@
     <t>EXTERNAL CONFIG FILE</t>
   </si>
   <si>
-    <t>XeroDashboardUrl</t>
-  </si>
-  <si>
-    <t>https://go.xero.com/Dashboard/default.aspx</t>
+    <t>Xero_LoginCredentials_Self</t>
+  </si>
+  <si>
+    <t>https://login.xero.com</t>
   </si>
 </sst>
 </file>
@@ -602,13 +599,13 @@
   <dimension ref="A1:Z957"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" customWidth="1"/>
     <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
@@ -659,7 +656,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -688,10 +685,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,13 +746,13 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>20</v>
@@ -763,39 +760,39 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>19</v>
@@ -803,7 +800,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
@@ -817,45 +814,45 @@
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>15</v>
@@ -863,7 +860,7 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>19</v>
@@ -871,7 +868,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>14</v>
@@ -879,23 +876,23 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>15</v>
@@ -903,7 +900,7 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>19</v>
@@ -911,7 +908,7 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>14</v>
@@ -919,10 +916,10 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3060,7 +3057,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>27</v>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DC153-FEB1-47F9-8E3B-6E3DC0B99FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E4220-0D28-40C3-99F4-F886374AD89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,12 +78,6 @@
     <t>ExpectionFolderPath</t>
   </si>
   <si>
-    <t>ProcessDataExcelFilePath</t>
-  </si>
-  <si>
-    <t>XeroBR_ProcessDataExcelFilePath</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -207,10 +201,16 @@
     <t>EXTERNAL CONFIG FILE</t>
   </si>
   <si>
-    <t>Xero_LoginCredentials_Self</t>
-  </si>
-  <si>
     <t>https://login.xero.com</t>
+  </si>
+  <si>
+    <t>XeroBR_ExternalConfigPathFile</t>
+  </si>
+  <si>
+    <t>ExternalConfigPathFile</t>
+  </si>
+  <si>
+    <t>Xero_LoginCredentials_self</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:Z957"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,16 +647,16 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -685,10 +685,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -746,61 +746,61 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
@@ -814,45 +814,45 @@
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>15</v>
@@ -860,15 +860,15 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>14</v>
@@ -876,23 +876,23 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>15</v>
@@ -900,15 +900,15 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>14</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2939,7 +2939,7 @@
   <dimension ref="A1:Z958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3041,26 +3041,26 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,15 +3068,15 @@
         <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E4220-0D28-40C3-99F4-F886374AD89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1EB04D-722E-4F4E-ADB1-EAFAB78A13DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>System_Data</t>
-  </si>
-  <si>
     <t>XeroBR_ProcessingFolderPath</t>
   </si>
   <si>
@@ -211,6 +208,24 @@
   </si>
   <si>
     <t>Xero_LoginCredentials_self</t>
+  </si>
+  <si>
+    <t>SystemSetting</t>
+  </si>
+  <si>
+    <t>Bank Reconcilliation Url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The processing folder path  set in orchestrator Asset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Arcive  folder path  set in orchestrator Asset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Expection folder path  set in orchestrator Asset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The External  folder path  set in orchestrator Asset </t>
   </si>
 </sst>
 </file>
@@ -598,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z957"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,16 +662,16 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -685,10 +700,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -746,53 +761,53 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
@@ -800,7 +815,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
@@ -814,45 +829,45 @@
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>15</v>
@@ -860,7 +875,7 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>17</v>
@@ -868,7 +883,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>14</v>
@@ -876,23 +891,23 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>15</v>
@@ -900,7 +915,7 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>17</v>
@@ -908,7 +923,7 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>14</v>
@@ -916,10 +931,10 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2938,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z958"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3041,26 +3056,35 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,15 +3092,21 @@
         <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1EB04D-722E-4F4E-ADB1-EAFAB78A13DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB6AF15-12BF-473A-9019-BAF2A3F5DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -207,12 +207,6 @@
     <t>ExternalConfigPathFile</t>
   </si>
   <si>
-    <t>Xero_LoginCredentials_self</t>
-  </si>
-  <si>
-    <t>SystemSetting</t>
-  </si>
-  <si>
     <t>Bank Reconcilliation Url</t>
   </si>
   <si>
@@ -226,6 +220,12 @@
   </si>
   <si>
     <t xml:space="preserve">The External  folder path  set in orchestrator Asset </t>
+  </si>
+  <si>
+    <t>Xero_LoginCredentials</t>
+  </si>
+  <si>
+    <t>SystemSettings</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z957"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -770,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2953,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z958"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3062,7 +3062,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB6AF15-12BF-473A-9019-BAF2A3F5DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B104E3-3639-4F8A-80C4-8220267D217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,10 +222,10 @@
     <t xml:space="preserve">The External  folder path  set in orchestrator Asset </t>
   </si>
   <si>
-    <t>Xero_LoginCredentials</t>
-  </si>
-  <si>
     <t>SystemSettings</t>
+  </si>
+  <si>
+    <t>Xero_LoginCredentials_self</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -770,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B104E3-3639-4F8A-80C4-8220267D217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9099B2-0CAD-4616-90C6-65EEBAC4DA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,7 +225,7 @@
     <t>SystemSettings</t>
   </si>
   <si>
-    <t>Xero_LoginCredentials_self</t>
+    <t>Xero_LoginCredentials</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <dimension ref="A1:Z957"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9099B2-0CAD-4616-90C6-65EEBAC4DA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD6A03-E4E1-4507-8BBD-12B10460F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:Z957"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD6A03-E4E1-4507-8BBD-12B10460F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9BAE6-D9E1-44E1-8431-E9FF2F1D58EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -223,6 +223,24 @@
   </si>
   <si>
     <t>SystemSettings</t>
+  </si>
+  <si>
+    <t>ColLetterAccounts_NumberofReconcile</t>
+  </si>
+  <si>
+    <t>ColLetterAccounts_NumberofDiscuss</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_RECONCILE</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_DISCUSS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>Xero_LoginCredentials</t>
@@ -611,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z957"/>
+  <dimension ref="A1:Z959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,7 +689,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -915,46 +933,74 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1864,6 +1910,8 @@
     <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Xero_Config.xlsx
+++ b/Data/Xero_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SodiqBakare\Documents\UiPath\UIPATH\Xero_Project\Xero_Bank_Recon_Deluxe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9BAE6-D9E1-44E1-8431-E9FF2F1D58EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB02F09-2B55-44C6-9853-10717A24FB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
